--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3452.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3452.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.527574919847423</v>
+        <v>1.213901162147522</v>
       </c>
       <c r="B1">
-        <v>2.177620658472537</v>
+        <v>2.141748428344727</v>
       </c>
       <c r="C1">
-        <v>2.319962001966366</v>
+        <v>5.896011352539062</v>
       </c>
       <c r="D1">
-        <v>2.746986588290728</v>
+        <v>1.107722640037537</v>
       </c>
       <c r="E1">
-        <v>3.750942019247148</v>
+        <v>1.245447278022766</v>
       </c>
     </row>
   </sheetData>
